--- a/mixs-templates/MigsOrg_plus_combinations/MigsOrgBuiltEnvironment.xlsx
+++ b/mixs-templates/MigsOrg_plus_combinations/MigsOrgBuiltEnvironment.xlsx
@@ -1474,10 +1474,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="82">
+  <dataValidations count="84">
     <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
+    <dataValidation sqref="U2:U1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
+    </dataValidation>
     <dataValidation sqref="Z2:Z1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
     </dataValidation>
@@ -1642,6 +1645,9 @@
     </dataValidation>
     <dataValidation sqref="FN2:FN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"clear sky,cloudy,foggy,hail,rain,sleet,snow,sunny,windy"</formula1>
+    </dataValidation>
+    <dataValidation sqref="FR2:FR1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="FS2:FS1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Fall,Spring,Summer,Winter"</formula1>
